--- a/Code/Results/Cases/Case_4_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.986693375739177</v>
+        <v>1.019276059405407</v>
       </c>
       <c r="D2">
-        <v>1.007262114405803</v>
+        <v>1.025259596646197</v>
       </c>
       <c r="E2">
-        <v>0.9949617077652799</v>
+        <v>1.022891904291117</v>
       </c>
       <c r="F2">
-        <v>0.9954073072251748</v>
+        <v>1.030488057141025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03761114953987</v>
+        <v>1.02902564449912</v>
       </c>
       <c r="J2">
-        <v>1.009279502937798</v>
+        <v>1.024479743265611</v>
       </c>
       <c r="K2">
-        <v>1.018621195150341</v>
+        <v>1.028085690362026</v>
       </c>
       <c r="L2">
-        <v>1.00649168315666</v>
+        <v>1.025724949130821</v>
       </c>
       <c r="M2">
-        <v>1.006930998560021</v>
+        <v>1.033298924045309</v>
       </c>
       <c r="N2">
-        <v>1.006989201273989</v>
+        <v>1.012222202112561</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.991176920690831</v>
+        <v>1.020219859434824</v>
       </c>
       <c r="D3">
-        <v>1.01047971211845</v>
+        <v>1.025951695828123</v>
       </c>
       <c r="E3">
-        <v>0.9989243175456868</v>
+        <v>1.023782517279035</v>
       </c>
       <c r="F3">
-        <v>1.000622138436169</v>
+        <v>1.031650389478844</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038653107481234</v>
+        <v>1.029181168928773</v>
       </c>
       <c r="J3">
-        <v>1.011911036152435</v>
+        <v>1.025060257866242</v>
       </c>
       <c r="K3">
-        <v>1.020980236343814</v>
+        <v>1.028585367592407</v>
       </c>
       <c r="L3">
-        <v>1.009570980457524</v>
+        <v>1.026422095978817</v>
       </c>
       <c r="M3">
-        <v>1.011247065069378</v>
+        <v>1.034268671050994</v>
       </c>
       <c r="N3">
-        <v>1.007882474431137</v>
+        <v>1.012416974006674</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9940179438255115</v>
+        <v>1.020830917333048</v>
       </c>
       <c r="D4">
-        <v>1.012520377979276</v>
+        <v>1.026399602648369</v>
       </c>
       <c r="E4">
-        <v>1.001441023717606</v>
+        <v>1.024359525066087</v>
       </c>
       <c r="F4">
-        <v>1.003927021200454</v>
+        <v>1.032402990707849</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039302315572011</v>
+        <v>1.029280482458022</v>
       </c>
       <c r="J4">
-        <v>1.013575919001676</v>
+        <v>1.025435662004712</v>
       </c>
       <c r="K4">
-        <v>1.022470005608189</v>
+        <v>1.028908090695391</v>
       </c>
       <c r="L4">
-        <v>1.011522087911469</v>
+        <v>1.026873288201085</v>
       </c>
       <c r="M4">
-        <v>1.013978280477168</v>
+        <v>1.0348960860374</v>
       </c>
       <c r="N4">
-        <v>1.008447297996673</v>
+        <v>1.012542852625679</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9951984403014735</v>
+        <v>1.021087890722084</v>
       </c>
       <c r="D5">
-        <v>1.013368687506857</v>
+        <v>1.026587918828151</v>
       </c>
       <c r="E5">
-        <v>1.002488109353248</v>
+        <v>1.024602270895171</v>
       </c>
       <c r="F5">
-        <v>1.005300412120943</v>
+        <v>1.032719502701747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039569386095446</v>
+        <v>1.029321917162517</v>
       </c>
       <c r="J5">
-        <v>1.01426705261184</v>
+        <v>1.025593426732428</v>
       </c>
       <c r="K5">
-        <v>1.023087775068592</v>
+        <v>1.029043618694319</v>
       </c>
       <c r="L5">
-        <v>1.012332748662977</v>
+        <v>1.027062990531525</v>
       </c>
       <c r="M5">
-        <v>1.01511227815418</v>
+        <v>1.03515983296484</v>
       </c>
       <c r="N5">
-        <v>1.008681688873835</v>
+        <v>1.012595735358397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9953958523095081</v>
+        <v>1.021131042630766</v>
       </c>
       <c r="D6">
-        <v>1.013510568963569</v>
+        <v>1.026619538856419</v>
       </c>
       <c r="E6">
-        <v>1.002663289571178</v>
+        <v>1.024643039030648</v>
       </c>
       <c r="F6">
-        <v>1.005530091499307</v>
+        <v>1.032772653405233</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039613888643453</v>
+        <v>1.029328855648165</v>
       </c>
       <c r="J6">
-        <v>1.01438259006513</v>
+        <v>1.025619912869395</v>
       </c>
       <c r="K6">
-        <v>1.023191008235268</v>
+        <v>1.0290663659277</v>
       </c>
       <c r="L6">
-        <v>1.01246830931925</v>
+        <v>1.027094843602567</v>
       </c>
       <c r="M6">
-        <v>1.015301863352816</v>
+        <v>1.03520411615672</v>
       </c>
       <c r="N6">
-        <v>1.008720867316847</v>
+        <v>1.012604612444893</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.994033771499043</v>
+        <v>1.020834350692204</v>
       </c>
       <c r="D7">
-        <v>1.012531750401807</v>
+        <v>1.02640211887639</v>
       </c>
       <c r="E7">
-        <v>1.001455057386227</v>
+        <v>1.024362767974113</v>
       </c>
       <c r="F7">
-        <v>1.003945434482764</v>
+        <v>1.032407219491148</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039305907025522</v>
+        <v>1.029281037355511</v>
       </c>
       <c r="J7">
-        <v>1.013585188102291</v>
+        <v>1.025437770282364</v>
       </c>
       <c r="K7">
-        <v>1.022478293462324</v>
+        <v>1.02890990219709</v>
       </c>
       <c r="L7">
-        <v>1.011532957240203</v>
+        <v>1.026875822930934</v>
       </c>
       <c r="M7">
-        <v>1.01399348813992</v>
+        <v>1.034899610308907</v>
       </c>
       <c r="N7">
-        <v>1.008450441843725</v>
+        <v>1.012543559391674</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9882213864290907</v>
+        <v>1.019594946924092</v>
       </c>
       <c r="D8">
-        <v>1.008358266538143</v>
+        <v>1.02549347911589</v>
       </c>
       <c r="E8">
-        <v>0.9963109466887</v>
+        <v>1.023192741098068</v>
       </c>
       <c r="F8">
-        <v>0.9971844674931758</v>
+        <v>1.030880770443653</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037968543106784</v>
+        <v>1.029078478019425</v>
       </c>
       <c r="J8">
-        <v>1.010176867194798</v>
+        <v>1.024675977616756</v>
       </c>
       <c r="K8">
-        <v>1.019426197671839</v>
+        <v>1.028254682681544</v>
       </c>
       <c r="L8">
-        <v>1.007541121519954</v>
+        <v>1.02596053372121</v>
       </c>
       <c r="M8">
-        <v>1.008402712510644</v>
+        <v>1.033626670298701</v>
       </c>
       <c r="N8">
-        <v>1.007293875919486</v>
+        <v>1.012288057445782</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.977493610560806</v>
+        <v>1.017413714123701</v>
       </c>
       <c r="D9">
-        <v>1.000672753328721</v>
+        <v>1.023892945643361</v>
       </c>
       <c r="E9">
-        <v>0.9868644406242717</v>
+        <v>1.021136575270754</v>
       </c>
       <c r="F9">
-        <v>0.9847078039922971</v>
+        <v>1.028194756430287</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035414159242921</v>
+        <v>1.0287114420418</v>
       </c>
       <c r="J9">
-        <v>1.003866950558747</v>
+        <v>1.023331888046953</v>
       </c>
       <c r="K9">
-        <v>1.013754925001297</v>
+        <v>1.027095530691469</v>
       </c>
       <c r="L9">
-        <v>1.000174289958456</v>
+        <v>1.024348414208576</v>
       </c>
       <c r="M9">
-        <v>0.9980539566439456</v>
+        <v>1.031383007926253</v>
       </c>
       <c r="N9">
-        <v>1.005150337424575</v>
+        <v>1.011836680462803</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9699777689153039</v>
+        <v>1.015961445988429</v>
       </c>
       <c r="D10">
-        <v>0.995304383913674</v>
+        <v>1.02282639931614</v>
       </c>
       <c r="E10">
-        <v>0.9802814398089796</v>
+        <v>1.019769601959864</v>
       </c>
       <c r="F10">
-        <v>0.9759650547668729</v>
+        <v>1.026406617579014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033568908659924</v>
+        <v>1.028459984225308</v>
       </c>
       <c r="J10">
-        <v>0.9994353347581222</v>
+        <v>1.022434715267816</v>
       </c>
       <c r="K10">
-        <v>1.009758939893516</v>
+        <v>1.026319735482135</v>
       </c>
       <c r="L10">
-        <v>0.9950160857626693</v>
+        <v>1.023274210076371</v>
       </c>
       <c r="M10">
-        <v>0.9907822644894589</v>
+        <v>1.029886846025275</v>
       </c>
       <c r="N10">
-        <v>1.003643566662223</v>
+        <v>1.011535006303833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9666278553092661</v>
+        <v>1.015333052159977</v>
       </c>
       <c r="D11">
-        <v>0.9929164563725809</v>
+        <v>1.022364700047922</v>
       </c>
       <c r="E11">
-        <v>0.9773563200182881</v>
+        <v>1.019178601527913</v>
       </c>
       <c r="F11">
-        <v>0.9720671743187002</v>
+        <v>1.025632932930567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032733852338966</v>
+        <v>1.028349499984653</v>
       </c>
       <c r="J11">
-        <v>0.9974580126669722</v>
+        <v>1.022045973410058</v>
       </c>
       <c r="K11">
-        <v>1.007973205829479</v>
+        <v>1.025983099047923</v>
       </c>
       <c r="L11">
-        <v>0.992718281024568</v>
+        <v>1.022809205886587</v>
       </c>
       <c r="M11">
-        <v>0.9875358143063251</v>
+        <v>1.029238899263672</v>
       </c>
       <c r="N11">
-        <v>1.00297102218036</v>
+        <v>1.011404202166334</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.965368353927811</v>
+        <v>1.015099706464956</v>
       </c>
       <c r="D12">
-        <v>0.9920194590376762</v>
+        <v>1.022193223866915</v>
       </c>
       <c r="E12">
-        <v>0.9762579471952429</v>
+        <v>1.018959214985286</v>
       </c>
       <c r="F12">
-        <v>0.9706014121175963</v>
+        <v>1.025345640502232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032418047267969</v>
+        <v>1.028308220987426</v>
       </c>
       <c r="J12">
-        <v>0.9967143088788376</v>
+        <v>1.021901538879983</v>
       </c>
       <c r="K12">
-        <v>1.007301167566043</v>
+        <v>1.025857951037411</v>
       </c>
       <c r="L12">
-        <v>0.9918545949989764</v>
+        <v>1.022636503364842</v>
       </c>
       <c r="M12">
-        <v>0.9863143807371416</v>
+        <v>1.028998208003185</v>
       </c>
       <c r="N12">
-        <v>1.002718035772206</v>
+        <v>1.01135558932024</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9656392231075476</v>
+        <v>1.015149756835197</v>
       </c>
       <c r="D13">
-        <v>0.9922123294784642</v>
+        <v>1.022230005190395</v>
       </c>
       <c r="E13">
-        <v>0.9764940990568316</v>
+        <v>1.019006267914219</v>
       </c>
       <c r="F13">
-        <v>0.9709166517087009</v>
+        <v>1.025407261703921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03248604678094</v>
+        <v>1.028317086337732</v>
       </c>
       <c r="J13">
-        <v>0.9968742617481626</v>
+        <v>1.021932522309575</v>
       </c>
       <c r="K13">
-        <v>1.007445724293748</v>
+        <v>1.025884800507008</v>
       </c>
       <c r="L13">
-        <v>0.9920403280360564</v>
+        <v>1.022673547692081</v>
       </c>
       <c r="M13">
-        <v>0.9865771011099823</v>
+        <v>1.029049837775876</v>
       </c>
       <c r="N13">
-        <v>1.002772448406408</v>
+        <v>1.011366018129629</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.966524059608166</v>
+        <v>1.0153137623472</v>
       </c>
       <c r="D14">
-        <v>0.9928425175569406</v>
+        <v>1.022350525369448</v>
       </c>
       <c r="E14">
-        <v>0.9772657738415131</v>
+        <v>1.019160464161063</v>
       </c>
       <c r="F14">
-        <v>0.9719463858446</v>
+        <v>1.025609183445392</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032707863883043</v>
+        <v>1.028346092748457</v>
       </c>
       <c r="J14">
-        <v>0.9973967291433407</v>
+        <v>1.022034035188654</v>
       </c>
       <c r="K14">
-        <v>1.007917835631214</v>
+        <v>1.025972756437653</v>
       </c>
       <c r="L14">
-        <v>0.9926470992808174</v>
+        <v>1.022794929815075</v>
       </c>
       <c r="M14">
-        <v>0.9874351728654991</v>
+        <v>1.029219003955459</v>
       </c>
       <c r="N14">
-        <v>1.002950175908568</v>
+        <v>1.011400184349641</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9670671968089382</v>
+        <v>1.015414820547843</v>
       </c>
       <c r="D15">
-        <v>0.9932294548874786</v>
+        <v>1.022424784444329</v>
       </c>
       <c r="E15">
-        <v>0.9777396375737227</v>
+        <v>1.019255487782936</v>
       </c>
       <c r="F15">
-        <v>0.9725784319752016</v>
+        <v>1.025733605811568</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032843780356592</v>
+        <v>1.02836393273309</v>
       </c>
       <c r="J15">
-        <v>0.9977173999234005</v>
+        <v>1.022096575540307</v>
       </c>
       <c r="K15">
-        <v>1.008207548573971</v>
+        <v>1.026026934931739</v>
       </c>
       <c r="L15">
-        <v>0.9930195859411602</v>
+        <v>1.022869720116592</v>
       </c>
       <c r="M15">
-        <v>0.9879617705088516</v>
+        <v>1.029323230832267</v>
       </c>
       <c r="N15">
-        <v>1.00305925440075</v>
+        <v>1.01142123179959</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9701980087117494</v>
+        <v>1.016003159892845</v>
       </c>
       <c r="D16">
-        <v>0.9954614861389217</v>
+        <v>1.022857043447787</v>
       </c>
       <c r="E16">
-        <v>0.9804739443017835</v>
+        <v>1.019808843921033</v>
       </c>
       <c r="F16">
-        <v>0.9762212917021046</v>
+        <v>1.026457976909924</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033623551333722</v>
+        <v>1.028467282992092</v>
       </c>
       <c r="J16">
-        <v>0.9995652938025216</v>
+        <v>1.022460509354065</v>
       </c>
       <c r="K16">
-        <v>1.009876250933966</v>
+        <v>1.026342061994115</v>
       </c>
       <c r="L16">
-        <v>0.9951671856232076</v>
+        <v>1.023305073742128</v>
       </c>
       <c r="M16">
-        <v>0.9909955882672522</v>
+        <v>1.029929846024376</v>
       </c>
       <c r="N16">
-        <v>1.003687764859216</v>
+        <v>1.011543683631889</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9721357374565922</v>
+        <v>1.016372329852826</v>
       </c>
       <c r="D17">
-        <v>0.9968442735560127</v>
+        <v>1.023128221633079</v>
       </c>
       <c r="E17">
-        <v>0.982168682909355</v>
+        <v>1.02015619335583</v>
       </c>
       <c r="F17">
-        <v>0.9784755981528989</v>
+        <v>1.026912513826315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03410288467165</v>
+        <v>1.028531683402293</v>
       </c>
       <c r="J17">
-        <v>1.000708475707272</v>
+        <v>1.022688726191046</v>
       </c>
       <c r="K17">
-        <v>1.010907861260868</v>
+        <v>1.026539542762381</v>
       </c>
       <c r="L17">
-        <v>0.9964967540272606</v>
+        <v>1.023578195758333</v>
       </c>
       <c r="M17">
-        <v>0.9928718555342708</v>
+        <v>1.030310333158959</v>
       </c>
       <c r="N17">
-        <v>1.004076526106406</v>
+        <v>1.011620447165407</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9732568274235472</v>
+        <v>1.016587703624927</v>
       </c>
       <c r="D18">
-        <v>0.9976447490203419</v>
+        <v>1.023286407009615</v>
       </c>
       <c r="E18">
-        <v>0.9831500394627412</v>
+        <v>1.020358883955358</v>
       </c>
       <c r="F18">
-        <v>0.9797797457580011</v>
+        <v>1.027177694591008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034379008453256</v>
+        <v>1.028569092541519</v>
       </c>
       <c r="J18">
-        <v>1.001369672402857</v>
+        <v>1.022821816073483</v>
       </c>
       <c r="K18">
-        <v>1.011504261386341</v>
+        <v>1.02665466120865</v>
       </c>
       <c r="L18">
-        <v>0.9972661051497241</v>
+        <v>1.023737516022037</v>
       </c>
       <c r="M18">
-        <v>0.9939568803501421</v>
+        <v>1.030532255345188</v>
       </c>
       <c r="N18">
-        <v>1.004301355268003</v>
+        <v>1.011665204917512</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9736375620421126</v>
+        <v>1.016661147825439</v>
       </c>
       <c r="D19">
-        <v>0.9979166733684904</v>
+        <v>1.023340346090904</v>
       </c>
       <c r="E19">
-        <v>0.9834834616156799</v>
+        <v>1.020428011034252</v>
       </c>
       <c r="F19">
-        <v>0.9802226335639033</v>
+        <v>1.027268124069425</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034472578275245</v>
+        <v>1.028581821869469</v>
       </c>
       <c r="J19">
-        <v>1.001594186730732</v>
+        <v>1.022867192002491</v>
       </c>
       <c r="K19">
-        <v>1.011706727804</v>
+        <v>1.026693901941738</v>
       </c>
       <c r="L19">
-        <v>0.9975274038166911</v>
+        <v>1.02379184226627</v>
       </c>
       <c r="M19">
-        <v>0.9943252817685764</v>
+        <v>1.030607923464985</v>
       </c>
       <c r="N19">
-        <v>1.004377693531046</v>
+        <v>1.011680463242793</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9719287902974288</v>
+        <v>1.01633271694013</v>
       </c>
       <c r="D20">
-        <v>0.9966965459828107</v>
+        <v>1.02309912555899</v>
       </c>
       <c r="E20">
-        <v>0.9819875981302488</v>
+        <v>1.020118916986334</v>
       </c>
       <c r="F20">
-        <v>0.9782348518300744</v>
+        <v>1.026863740415978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034051816440906</v>
+        <v>1.028524789829</v>
       </c>
       <c r="J20">
-        <v>1.000586405789532</v>
+        <v>1.022664243280074</v>
       </c>
       <c r="K20">
-        <v>1.010797732429751</v>
+        <v>1.026518362050252</v>
       </c>
       <c r="L20">
-        <v>0.9963547451151774</v>
+        <v>1.023548891020337</v>
       </c>
       <c r="M20">
-        <v>0.9926715250846447</v>
+        <v>1.030269511476128</v>
       </c>
       <c r="N20">
-        <v>1.004035016269304</v>
+        <v>1.011612212933457</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9662639238638311</v>
+        <v>1.01526546493759</v>
       </c>
       <c r="D21">
-        <v>0.992657223454762</v>
+        <v>1.022315034633871</v>
       </c>
       <c r="E21">
-        <v>0.9770388674263915</v>
+        <v>1.019115053411256</v>
       </c>
       <c r="F21">
-        <v>0.9716436582823905</v>
+        <v>1.025549720084964</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032642701415525</v>
+        <v>1.028337557712172</v>
       </c>
       <c r="J21">
-        <v>0.9972431344397422</v>
+        <v>1.022004143233865</v>
       </c>
       <c r="K21">
-        <v>1.007779055216401</v>
+        <v>1.02594685853558</v>
       </c>
       <c r="L21">
-        <v>0.9924687056618596</v>
+        <v>1.022759185227002</v>
       </c>
       <c r="M21">
-        <v>0.9871829289115945</v>
+        <v>1.029169189146663</v>
       </c>
       <c r="N21">
-        <v>1.002897928479422</v>
+        <v>1.011390123975126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9626138213269805</v>
+        <v>1.014594833470894</v>
       </c>
       <c r="D22">
-        <v>0.9900593291680584</v>
+        <v>1.02182215882486</v>
       </c>
       <c r="E22">
-        <v>0.9738584740692987</v>
+        <v>1.018484679550397</v>
       </c>
       <c r="F22">
-        <v>0.9673952716453279</v>
+        <v>1.024724055212224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031724056402141</v>
+        <v>1.028218447722486</v>
       </c>
       <c r="J22">
-        <v>0.9950873814457377</v>
+        <v>1.021588889703179</v>
       </c>
       <c r="K22">
-        <v>1.005830318747833</v>
+        <v>1.025586917217735</v>
       </c>
       <c r="L22">
-        <v>0.9899662176009679</v>
+        <v>1.022262786192345</v>
       </c>
       <c r="M22">
-        <v>0.9836415383880334</v>
+        <v>1.028477286069754</v>
       </c>
       <c r="N22">
-        <v>1.002164551291484</v>
+        <v>1.011250335419997</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9645574862371905</v>
+        <v>1.014950310564912</v>
       </c>
       <c r="D23">
-        <v>0.9914422134173593</v>
+        <v>1.022083430510932</v>
       </c>
       <c r="E23">
-        <v>0.9755512205645627</v>
+        <v>1.018818776999096</v>
       </c>
       <c r="F23">
-        <v>0.9696576780051201</v>
+        <v>1.025161707375025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03221422000186</v>
+        <v>1.028281721793501</v>
       </c>
       <c r="J23">
-        <v>0.9962354416714054</v>
+        <v>1.021809044345156</v>
       </c>
       <c r="K23">
-        <v>1.006868337546942</v>
+        <v>1.025777786916678</v>
       </c>
       <c r="L23">
-        <v>0.991298628608145</v>
+        <v>1.022525925067523</v>
       </c>
       <c r="M23">
-        <v>0.9855277828470965</v>
+        <v>1.028844085252063</v>
       </c>
       <c r="N23">
-        <v>1.002555130990466</v>
+        <v>1.011324454337407</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9720223290387469</v>
+        <v>1.016350616176806</v>
       </c>
       <c r="D24">
-        <v>0.9967633164708999</v>
+        <v>1.023112272786295</v>
       </c>
       <c r="E24">
-        <v>0.9820694446142958</v>
+        <v>1.0201357603027</v>
       </c>
       <c r="F24">
-        <v>0.9783436678774823</v>
+        <v>1.026885778844123</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034074902663104</v>
+        <v>1.028527905215528</v>
       </c>
       <c r="J24">
-        <v>1.000641581208833</v>
+        <v>1.022675306131373</v>
       </c>
       <c r="K24">
-        <v>1.010847511321062</v>
+        <v>1.026527932914798</v>
       </c>
       <c r="L24">
-        <v>0.9964189318391823</v>
+        <v>1.023562132530469</v>
       </c>
       <c r="M24">
-        <v>0.9927620746844359</v>
+        <v>1.0302879570667</v>
       </c>
       <c r="N24">
-        <v>1.004053778727005</v>
+        <v>1.011615933681345</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9803282475163837</v>
+        <v>1.017977285034408</v>
       </c>
       <c r="D25">
-        <v>1.002701074263877</v>
+        <v>1.024306643029241</v>
       </c>
       <c r="E25">
-        <v>0.9893546718042978</v>
+        <v>1.021667477224184</v>
       </c>
       <c r="F25">
-        <v>0.9880046156903087</v>
+        <v>1.028888707735012</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036098889281943</v>
+        <v>1.028807524148931</v>
       </c>
       <c r="J25">
-        <v>1.005536277999436</v>
+        <v>1.023679566461761</v>
       </c>
       <c r="K25">
-        <v>1.015257603744358</v>
+        <v>1.027395736226568</v>
       </c>
       <c r="L25">
-        <v>1.002120521638692</v>
+        <v>1.024765093594183</v>
       </c>
       <c r="M25">
-        <v>1.000792043163842</v>
+        <v>1.031963116839774</v>
       </c>
       <c r="N25">
-        <v>1.005717669800635</v>
+        <v>1.011953506752688</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019276059405407</v>
+        <v>0.9866933757391768</v>
       </c>
       <c r="D2">
-        <v>1.025259596646197</v>
+        <v>1.007262114405803</v>
       </c>
       <c r="E2">
-        <v>1.022891904291117</v>
+        <v>0.9949617077652798</v>
       </c>
       <c r="F2">
-        <v>1.030488057141025</v>
+        <v>0.9954073072251746</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02902564449912</v>
+        <v>1.03761114953987</v>
       </c>
       <c r="J2">
-        <v>1.024479743265611</v>
+        <v>1.009279502937798</v>
       </c>
       <c r="K2">
-        <v>1.028085690362026</v>
+        <v>1.018621195150341</v>
       </c>
       <c r="L2">
-        <v>1.025724949130821</v>
+        <v>1.00649168315666</v>
       </c>
       <c r="M2">
-        <v>1.033298924045309</v>
+        <v>1.006930998560021</v>
       </c>
       <c r="N2">
-        <v>1.012222202112561</v>
+        <v>1.006989201273989</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020219859434824</v>
+        <v>0.9911769206908315</v>
       </c>
       <c r="D3">
-        <v>1.025951695828123</v>
+        <v>1.01047971211845</v>
       </c>
       <c r="E3">
-        <v>1.023782517279035</v>
+        <v>0.9989243175456877</v>
       </c>
       <c r="F3">
-        <v>1.031650389478844</v>
+        <v>1.00062213843617</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029181168928773</v>
+        <v>1.038653107481234</v>
       </c>
       <c r="J3">
-        <v>1.025060257866242</v>
+        <v>1.011911036152436</v>
       </c>
       <c r="K3">
-        <v>1.028585367592407</v>
+        <v>1.020980236343815</v>
       </c>
       <c r="L3">
-        <v>1.026422095978817</v>
+        <v>1.009570980457525</v>
       </c>
       <c r="M3">
-        <v>1.034268671050994</v>
+        <v>1.011247065069379</v>
       </c>
       <c r="N3">
-        <v>1.012416974006674</v>
+        <v>1.007882474431137</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020830917333048</v>
+        <v>0.9940179438255117</v>
       </c>
       <c r="D4">
-        <v>1.026399602648369</v>
+        <v>1.012520377979276</v>
       </c>
       <c r="E4">
-        <v>1.024359525066087</v>
+        <v>1.001441023717606</v>
       </c>
       <c r="F4">
-        <v>1.032402990707849</v>
+        <v>1.003927021200454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029280482458022</v>
+        <v>1.039302315572011</v>
       </c>
       <c r="J4">
-        <v>1.025435662004712</v>
+        <v>1.013575919001677</v>
       </c>
       <c r="K4">
-        <v>1.028908090695391</v>
+        <v>1.022470005608189</v>
       </c>
       <c r="L4">
-        <v>1.026873288201085</v>
+        <v>1.011522087911469</v>
       </c>
       <c r="M4">
-        <v>1.0348960860374</v>
+        <v>1.013978280477168</v>
       </c>
       <c r="N4">
-        <v>1.012542852625679</v>
+        <v>1.008447297996673</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021087890722084</v>
+        <v>0.9951984403014731</v>
       </c>
       <c r="D5">
-        <v>1.026587918828151</v>
+        <v>1.013368687506856</v>
       </c>
       <c r="E5">
-        <v>1.024602270895171</v>
+        <v>1.002488109353248</v>
       </c>
       <c r="F5">
-        <v>1.032719502701747</v>
+        <v>1.005300412120943</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029321917162517</v>
+        <v>1.039569386095446</v>
       </c>
       <c r="J5">
-        <v>1.025593426732428</v>
+        <v>1.01426705261184</v>
       </c>
       <c r="K5">
-        <v>1.029043618694319</v>
+        <v>1.023087775068592</v>
       </c>
       <c r="L5">
-        <v>1.027062990531525</v>
+        <v>1.012332748662976</v>
       </c>
       <c r="M5">
-        <v>1.03515983296484</v>
+        <v>1.015112278154181</v>
       </c>
       <c r="N5">
-        <v>1.012595735358397</v>
+        <v>1.008681688873835</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021131042630766</v>
+        <v>0.9953958523095077</v>
       </c>
       <c r="D6">
-        <v>1.026619538856419</v>
+        <v>1.013510568963568</v>
       </c>
       <c r="E6">
-        <v>1.024643039030648</v>
+        <v>1.002663289571177</v>
       </c>
       <c r="F6">
-        <v>1.032772653405233</v>
+        <v>1.005530091499307</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029328855648165</v>
+        <v>1.039613888643453</v>
       </c>
       <c r="J6">
-        <v>1.025619912869395</v>
+        <v>1.01438259006513</v>
       </c>
       <c r="K6">
-        <v>1.0290663659277</v>
+        <v>1.023191008235268</v>
       </c>
       <c r="L6">
-        <v>1.027094843602567</v>
+        <v>1.01246830931925</v>
       </c>
       <c r="M6">
-        <v>1.03520411615672</v>
+        <v>1.015301863352816</v>
       </c>
       <c r="N6">
-        <v>1.012604612444893</v>
+        <v>1.008720867316847</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020834350692204</v>
+        <v>0.9940337714990425</v>
       </c>
       <c r="D7">
-        <v>1.02640211887639</v>
+        <v>1.012531750401807</v>
       </c>
       <c r="E7">
-        <v>1.024362767974113</v>
+        <v>1.001455057386226</v>
       </c>
       <c r="F7">
-        <v>1.032407219491148</v>
+        <v>1.003945434482764</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029281037355511</v>
+        <v>1.039305907025522</v>
       </c>
       <c r="J7">
-        <v>1.025437770282364</v>
+        <v>1.01358518810229</v>
       </c>
       <c r="K7">
-        <v>1.02890990219709</v>
+        <v>1.022478293462324</v>
       </c>
       <c r="L7">
-        <v>1.026875822930934</v>
+        <v>1.011532957240202</v>
       </c>
       <c r="M7">
-        <v>1.034899610308907</v>
+        <v>1.013993488139919</v>
       </c>
       <c r="N7">
-        <v>1.012543559391674</v>
+        <v>1.008450441843725</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019594946924092</v>
+        <v>0.9882213864290907</v>
       </c>
       <c r="D8">
-        <v>1.02549347911589</v>
+        <v>1.008358266538143</v>
       </c>
       <c r="E8">
-        <v>1.023192741098068</v>
+        <v>0.9963109466887002</v>
       </c>
       <c r="F8">
-        <v>1.030880770443653</v>
+        <v>0.9971844674931762</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029078478019425</v>
+        <v>1.037968543106784</v>
       </c>
       <c r="J8">
-        <v>1.024675977616756</v>
+        <v>1.010176867194798</v>
       </c>
       <c r="K8">
-        <v>1.028254682681544</v>
+        <v>1.019426197671839</v>
       </c>
       <c r="L8">
-        <v>1.02596053372121</v>
+        <v>1.007541121519955</v>
       </c>
       <c r="M8">
-        <v>1.033626670298701</v>
+        <v>1.008402712510644</v>
       </c>
       <c r="N8">
-        <v>1.012288057445782</v>
+        <v>1.007293875919486</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017413714123701</v>
+        <v>0.9774936105608049</v>
       </c>
       <c r="D9">
-        <v>1.023892945643361</v>
+        <v>1.00067275332872</v>
       </c>
       <c r="E9">
-        <v>1.021136575270754</v>
+        <v>0.9868644406242706</v>
       </c>
       <c r="F9">
-        <v>1.028194756430287</v>
+        <v>0.9847078039922964</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0287114420418</v>
+        <v>1.03541415924292</v>
       </c>
       <c r="J9">
-        <v>1.023331888046953</v>
+        <v>1.003866950558746</v>
       </c>
       <c r="K9">
-        <v>1.027095530691469</v>
+        <v>1.013754925001296</v>
       </c>
       <c r="L9">
-        <v>1.024348414208576</v>
+        <v>1.000174289958455</v>
       </c>
       <c r="M9">
-        <v>1.031383007926253</v>
+        <v>0.9980539566439448</v>
       </c>
       <c r="N9">
-        <v>1.011836680462803</v>
+        <v>1.005150337424575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015961445988429</v>
+        <v>0.9699777689153036</v>
       </c>
       <c r="D10">
-        <v>1.02282639931614</v>
+        <v>0.9953043839136736</v>
       </c>
       <c r="E10">
-        <v>1.019769601959864</v>
+        <v>0.9802814398089794</v>
       </c>
       <c r="F10">
-        <v>1.026406617579014</v>
+        <v>0.9759650547668729</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028459984225308</v>
+        <v>1.033568908659924</v>
       </c>
       <c r="J10">
-        <v>1.022434715267816</v>
+        <v>0.9994353347581219</v>
       </c>
       <c r="K10">
-        <v>1.026319735482135</v>
+        <v>1.009758939893515</v>
       </c>
       <c r="L10">
-        <v>1.023274210076371</v>
+        <v>0.9950160857626692</v>
       </c>
       <c r="M10">
-        <v>1.029886846025275</v>
+        <v>0.9907822644894589</v>
       </c>
       <c r="N10">
-        <v>1.011535006303833</v>
+        <v>1.003643566662223</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015333052159977</v>
+        <v>0.9666278553092662</v>
       </c>
       <c r="D11">
-        <v>1.022364700047922</v>
+        <v>0.9929164563725809</v>
       </c>
       <c r="E11">
-        <v>1.019178601527913</v>
+        <v>0.9773563200182883</v>
       </c>
       <c r="F11">
-        <v>1.025632932930567</v>
+        <v>0.9720671743187008</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028349499984653</v>
+        <v>1.032733852338966</v>
       </c>
       <c r="J11">
-        <v>1.022045973410058</v>
+        <v>0.9974580126669724</v>
       </c>
       <c r="K11">
-        <v>1.025983099047923</v>
+        <v>1.007973205829479</v>
       </c>
       <c r="L11">
-        <v>1.022809205886587</v>
+        <v>0.9927182810245683</v>
       </c>
       <c r="M11">
-        <v>1.029238899263672</v>
+        <v>0.9875358143063254</v>
       </c>
       <c r="N11">
-        <v>1.011404202166334</v>
+        <v>1.00297102218036</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015099706464956</v>
+        <v>0.9653683539278117</v>
       </c>
       <c r="D12">
-        <v>1.022193223866915</v>
+        <v>0.9920194590376766</v>
       </c>
       <c r="E12">
-        <v>1.018959214985286</v>
+        <v>0.9762579471952437</v>
       </c>
       <c r="F12">
-        <v>1.025345640502232</v>
+        <v>0.9706014121175971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028308220987426</v>
+        <v>1.03241804726797</v>
       </c>
       <c r="J12">
-        <v>1.021901538879983</v>
+        <v>0.9967143088788383</v>
       </c>
       <c r="K12">
-        <v>1.025857951037411</v>
+        <v>1.007301167566043</v>
       </c>
       <c r="L12">
-        <v>1.022636503364842</v>
+        <v>0.9918545949989775</v>
       </c>
       <c r="M12">
-        <v>1.028998208003185</v>
+        <v>0.9863143807371423</v>
       </c>
       <c r="N12">
-        <v>1.01135558932024</v>
+        <v>1.002718035772206</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015149756835197</v>
+        <v>0.9656392231075481</v>
       </c>
       <c r="D13">
-        <v>1.022230005190395</v>
+        <v>0.9922123294784646</v>
       </c>
       <c r="E13">
-        <v>1.019006267914219</v>
+        <v>0.9764940990568323</v>
       </c>
       <c r="F13">
-        <v>1.025407261703921</v>
+        <v>0.9709166517087015</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028317086337732</v>
+        <v>1.03248604678094</v>
       </c>
       <c r="J13">
-        <v>1.021932522309575</v>
+        <v>0.9968742617481632</v>
       </c>
       <c r="K13">
-        <v>1.025884800507008</v>
+        <v>1.007445724293749</v>
       </c>
       <c r="L13">
-        <v>1.022673547692081</v>
+        <v>0.9920403280360569</v>
       </c>
       <c r="M13">
-        <v>1.029049837775876</v>
+        <v>0.9865771011099829</v>
       </c>
       <c r="N13">
-        <v>1.011366018129629</v>
+        <v>1.002772448406408</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0153137623472</v>
+        <v>0.9665240596081667</v>
       </c>
       <c r="D14">
-        <v>1.022350525369448</v>
+        <v>0.9928425175569412</v>
       </c>
       <c r="E14">
-        <v>1.019160464161063</v>
+        <v>0.9772657738415134</v>
       </c>
       <c r="F14">
-        <v>1.025609183445392</v>
+        <v>0.9719463858446002</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028346092748457</v>
+        <v>1.032707863883043</v>
       </c>
       <c r="J14">
-        <v>1.022034035188654</v>
+        <v>0.9973967291433412</v>
       </c>
       <c r="K14">
-        <v>1.025972756437653</v>
+        <v>1.007917835631215</v>
       </c>
       <c r="L14">
-        <v>1.022794929815075</v>
+        <v>0.9926470992808175</v>
       </c>
       <c r="M14">
-        <v>1.029219003955459</v>
+        <v>0.9874351728654993</v>
       </c>
       <c r="N14">
-        <v>1.011400184349641</v>
+        <v>1.002950175908568</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015414820547843</v>
+        <v>0.9670671968089378</v>
       </c>
       <c r="D15">
-        <v>1.022424784444329</v>
+        <v>0.993229454887478</v>
       </c>
       <c r="E15">
-        <v>1.019255487782936</v>
+        <v>0.9777396375737218</v>
       </c>
       <c r="F15">
-        <v>1.025733605811568</v>
+        <v>0.9725784319752012</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02836393273309</v>
+        <v>1.032843780356592</v>
       </c>
       <c r="J15">
-        <v>1.022096575540307</v>
+        <v>0.9977173999234</v>
       </c>
       <c r="K15">
-        <v>1.026026934931739</v>
+        <v>1.00820754857397</v>
       </c>
       <c r="L15">
-        <v>1.022869720116592</v>
+        <v>0.9930195859411596</v>
       </c>
       <c r="M15">
-        <v>1.029323230832267</v>
+        <v>0.9879617705088513</v>
       </c>
       <c r="N15">
-        <v>1.01142123179959</v>
+        <v>1.00305925440075</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016003159892845</v>
+        <v>0.9701980087117498</v>
       </c>
       <c r="D16">
-        <v>1.022857043447787</v>
+        <v>0.9954614861389219</v>
       </c>
       <c r="E16">
-        <v>1.019808843921033</v>
+        <v>0.9804739443017839</v>
       </c>
       <c r="F16">
-        <v>1.026457976909924</v>
+        <v>0.9762212917021049</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028467282992092</v>
+        <v>1.033623551333723</v>
       </c>
       <c r="J16">
-        <v>1.022460509354065</v>
+        <v>0.9995652938025218</v>
       </c>
       <c r="K16">
-        <v>1.026342061994115</v>
+        <v>1.009876250933967</v>
       </c>
       <c r="L16">
-        <v>1.023305073742128</v>
+        <v>0.9951671856232082</v>
       </c>
       <c r="M16">
-        <v>1.029929846024376</v>
+        <v>0.9909955882672525</v>
       </c>
       <c r="N16">
-        <v>1.011543683631889</v>
+        <v>1.003687764859216</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016372329852826</v>
+        <v>0.9721357374565927</v>
       </c>
       <c r="D17">
-        <v>1.023128221633079</v>
+        <v>0.996844273556013</v>
       </c>
       <c r="E17">
-        <v>1.02015619335583</v>
+        <v>0.9821686829093552</v>
       </c>
       <c r="F17">
-        <v>1.026912513826315</v>
+        <v>0.9784755981528991</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028531683402293</v>
+        <v>1.03410288467165</v>
       </c>
       <c r="J17">
-        <v>1.022688726191046</v>
+        <v>1.000708475707272</v>
       </c>
       <c r="K17">
-        <v>1.026539542762381</v>
+        <v>1.010907861260868</v>
       </c>
       <c r="L17">
-        <v>1.023578195758333</v>
+        <v>0.9964967540272609</v>
       </c>
       <c r="M17">
-        <v>1.030310333158959</v>
+        <v>0.992871855534271</v>
       </c>
       <c r="N17">
-        <v>1.011620447165407</v>
+        <v>1.004076526106406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016587703624927</v>
+        <v>0.9732568274235474</v>
       </c>
       <c r="D18">
-        <v>1.023286407009615</v>
+        <v>0.9976447490203419</v>
       </c>
       <c r="E18">
-        <v>1.020358883955358</v>
+        <v>0.9831500394627413</v>
       </c>
       <c r="F18">
-        <v>1.027177694591008</v>
+        <v>0.9797797457580009</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028569092541519</v>
+        <v>1.034379008453256</v>
       </c>
       <c r="J18">
-        <v>1.022821816073483</v>
+        <v>1.001369672402857</v>
       </c>
       <c r="K18">
-        <v>1.02665466120865</v>
+        <v>1.011504261386341</v>
       </c>
       <c r="L18">
-        <v>1.023737516022037</v>
+        <v>0.9972661051497241</v>
       </c>
       <c r="M18">
-        <v>1.030532255345188</v>
+        <v>0.9939568803501418</v>
       </c>
       <c r="N18">
-        <v>1.011665204917512</v>
+        <v>1.004301355268003</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016661147825439</v>
+        <v>0.973637562042113</v>
       </c>
       <c r="D19">
-        <v>1.023340346090904</v>
+        <v>0.9979166733684909</v>
       </c>
       <c r="E19">
-        <v>1.020428011034252</v>
+        <v>0.9834834616156802</v>
       </c>
       <c r="F19">
-        <v>1.027268124069425</v>
+        <v>0.9802226335639035</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028581821869469</v>
+        <v>1.034472578275245</v>
       </c>
       <c r="J19">
-        <v>1.022867192002491</v>
+        <v>1.001594186730732</v>
       </c>
       <c r="K19">
-        <v>1.026693901941738</v>
+        <v>1.011706727804001</v>
       </c>
       <c r="L19">
-        <v>1.02379184226627</v>
+        <v>0.9975274038166915</v>
       </c>
       <c r="M19">
-        <v>1.030607923464985</v>
+        <v>0.9943252817685768</v>
       </c>
       <c r="N19">
-        <v>1.011680463242793</v>
+        <v>1.004377693531046</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01633271694013</v>
+        <v>0.9719287902974282</v>
       </c>
       <c r="D20">
-        <v>1.02309912555899</v>
+        <v>0.9966965459828104</v>
       </c>
       <c r="E20">
-        <v>1.020118916986334</v>
+        <v>0.9819875981302486</v>
       </c>
       <c r="F20">
-        <v>1.026863740415978</v>
+        <v>0.978234851830074</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028524789829</v>
+        <v>1.034051816440906</v>
       </c>
       <c r="J20">
-        <v>1.022664243280074</v>
+        <v>1.000586405789531</v>
       </c>
       <c r="K20">
-        <v>1.026518362050252</v>
+        <v>1.010797732429751</v>
       </c>
       <c r="L20">
-        <v>1.023548891020337</v>
+        <v>0.9963547451151772</v>
       </c>
       <c r="M20">
-        <v>1.030269511476128</v>
+        <v>0.9926715250846444</v>
       </c>
       <c r="N20">
-        <v>1.011612212933457</v>
+        <v>1.004035016269303</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01526546493759</v>
+        <v>0.9662639238638312</v>
       </c>
       <c r="D21">
-        <v>1.022315034633871</v>
+        <v>0.9926572234547618</v>
       </c>
       <c r="E21">
-        <v>1.019115053411256</v>
+        <v>0.9770388674263916</v>
       </c>
       <c r="F21">
-        <v>1.025549720084964</v>
+        <v>0.9716436582823903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028337557712172</v>
+        <v>1.032642701415525</v>
       </c>
       <c r="J21">
-        <v>1.022004143233865</v>
+        <v>0.9972431344397423</v>
       </c>
       <c r="K21">
-        <v>1.02594685853558</v>
+        <v>1.007779055216401</v>
       </c>
       <c r="L21">
-        <v>1.022759185227002</v>
+        <v>0.9924687056618596</v>
       </c>
       <c r="M21">
-        <v>1.029169189146663</v>
+        <v>0.9871829289115944</v>
       </c>
       <c r="N21">
-        <v>1.011390123975126</v>
+        <v>1.002897928479422</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014594833470894</v>
+        <v>0.9626138213269813</v>
       </c>
       <c r="D22">
-        <v>1.02182215882486</v>
+        <v>0.9900593291680588</v>
       </c>
       <c r="E22">
-        <v>1.018484679550397</v>
+        <v>0.9738584740692995</v>
       </c>
       <c r="F22">
-        <v>1.024724055212224</v>
+        <v>0.9673952716453281</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028218447722486</v>
+        <v>1.031724056402141</v>
       </c>
       <c r="J22">
-        <v>1.021588889703179</v>
+        <v>0.9950873814457382</v>
       </c>
       <c r="K22">
-        <v>1.025586917217735</v>
+        <v>1.005830318747833</v>
       </c>
       <c r="L22">
-        <v>1.022262786192345</v>
+        <v>0.9899662176009688</v>
       </c>
       <c r="M22">
-        <v>1.028477286069754</v>
+        <v>0.9836415383880337</v>
       </c>
       <c r="N22">
-        <v>1.011250335419997</v>
+        <v>1.002164551291484</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014950310564912</v>
+        <v>0.9645574862371898</v>
       </c>
       <c r="D23">
-        <v>1.022083430510932</v>
+        <v>0.9914422134173588</v>
       </c>
       <c r="E23">
-        <v>1.018818776999096</v>
+        <v>0.9755512205645622</v>
       </c>
       <c r="F23">
-        <v>1.025161707375025</v>
+        <v>0.96965767800512</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028281721793501</v>
+        <v>1.03221422000186</v>
       </c>
       <c r="J23">
-        <v>1.021809044345156</v>
+        <v>0.996235441671405</v>
       </c>
       <c r="K23">
-        <v>1.025777786916678</v>
+        <v>1.006868337546942</v>
       </c>
       <c r="L23">
-        <v>1.022525925067523</v>
+        <v>0.9912986286081445</v>
       </c>
       <c r="M23">
-        <v>1.028844085252063</v>
+        <v>0.9855277828470964</v>
       </c>
       <c r="N23">
-        <v>1.011324454337407</v>
+        <v>1.002555130990466</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016350616176806</v>
+        <v>0.9720223290387473</v>
       </c>
       <c r="D24">
-        <v>1.023112272786295</v>
+        <v>0.9967633164709001</v>
       </c>
       <c r="E24">
-        <v>1.0201357603027</v>
+        <v>0.9820694446142961</v>
       </c>
       <c r="F24">
-        <v>1.026885778844123</v>
+        <v>0.9783436678774828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028527905215528</v>
+        <v>1.034074902663104</v>
       </c>
       <c r="J24">
-        <v>1.022675306131373</v>
+        <v>1.000641581208833</v>
       </c>
       <c r="K24">
-        <v>1.026527932914798</v>
+        <v>1.010847511321062</v>
       </c>
       <c r="L24">
-        <v>1.023562132530469</v>
+        <v>0.9964189318391826</v>
       </c>
       <c r="M24">
-        <v>1.0302879570667</v>
+        <v>0.9927620746844363</v>
       </c>
       <c r="N24">
-        <v>1.011615933681345</v>
+        <v>1.004053778727005</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017977285034408</v>
+        <v>0.9803282475163841</v>
       </c>
       <c r="D25">
-        <v>1.024306643029241</v>
+        <v>1.002701074263877</v>
       </c>
       <c r="E25">
-        <v>1.021667477224184</v>
+        <v>0.9893546718042986</v>
       </c>
       <c r="F25">
-        <v>1.028888707735012</v>
+        <v>0.9880046156903093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028807524148931</v>
+        <v>1.036098889281944</v>
       </c>
       <c r="J25">
-        <v>1.023679566461761</v>
+        <v>1.005536277999437</v>
       </c>
       <c r="K25">
-        <v>1.027395736226568</v>
+        <v>1.015257603744358</v>
       </c>
       <c r="L25">
-        <v>1.024765093594183</v>
+        <v>1.002120521638693</v>
       </c>
       <c r="M25">
-        <v>1.031963116839774</v>
+        <v>1.000792043163842</v>
       </c>
       <c r="N25">
-        <v>1.011953506752688</v>
+        <v>1.005717669800635</v>
       </c>
     </row>
   </sheetData>
